--- a/Accuracy_tables.xlsx
+++ b/Accuracy_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\OneDrive\Documents\Taiwan Classes\Second Semester\Brain Computer Interfaces\BCI Presentation and Project\SEED4\bci-emotion-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9583FB1B-210C-43EC-BBB9-78DF2BD5C657}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B88F996-220E-4344-99FE-5CAB1ED565D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C843D5BE-4351-4DF4-BA8A-45AA6EF1EA66}"/>
   </bookViews>
@@ -61,7 +61,7 @@
     <t>With Statistical Features</t>
   </si>
   <si>
-    <t>F1 Scores</t>
+    <t>Accuracies - FFTs</t>
   </si>
 </sst>
 </file>
@@ -471,6 +471,335 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$20</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracies - FFTs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$21:$D$24</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RFC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$21:$E$24</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93298000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-4AA3-4433-8D93-F306AD9F40A7}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="268078879"/>
+        <c:axId val="268080543"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="268078879"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268080543"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="268080543"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="268078879"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -511,6 +840,43 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="12">
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -1005,20 +1371,514 @@
 </cs:chartStyle>
 </file>
 
+<file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
 <file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
 <xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
   <xdr:twoCellAnchor>
     <xdr:from>
-      <xdr:col>5</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>2</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>0</xdr:colOff>
+      <xdr:row>0</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>13</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>7620</xdr:rowOff>
+      <xdr:colOff>304800</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>15240</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1038,6 +1898,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>5</xdr:col>
+      <xdr:colOff>601980</xdr:colOff>
+      <xdr:row>17</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>13</xdr:col>
+      <xdr:colOff>297180</xdr:colOff>
+      <xdr:row>32</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="4" name="Chart 3">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{55F453D7-EB2F-72C4-92C2-3412A5B8DD72}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -1343,10 +2239,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A6E9D-3521-4859-B9EB-983151B8E8C7}">
-  <dimension ref="D4:E16"/>
+  <dimension ref="D4:E24"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="F17" sqref="F17"/>
+      <selection activeCell="E12" sqref="E12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -1403,52 +2299,52 @@
         <v>0.97004000000000001</v>
       </c>
     </row>
-    <row r="11" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D11" t="s">
+    <row r="19" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D19" t="s">
         <v>6</v>
       </c>
-      <c r="E11" t="s">
+      <c r="E19" t="s">
         <v>7</v>
       </c>
     </row>
-    <row r="12" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D12" s="1" t="s">
+    <row r="20" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D20" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="E12" s="1" t="s">
+      <c r="E20" s="1" t="s">
         <v>8</v>
       </c>
     </row>
-    <row r="13" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D13" s="2" t="s">
+    <row r="21" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D21" s="2" t="s">
         <v>2</v>
       </c>
-      <c r="E13" s="3">
-        <v>0.96</v>
+      <c r="E21" s="3">
+        <v>0.93298000000000003</v>
       </c>
     </row>
-    <row r="14" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D14" s="2" t="s">
+    <row r="22" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D22" s="2" t="s">
         <v>3</v>
       </c>
-      <c r="E14" s="3">
-        <v>0.9</v>
+      <c r="E22" s="3">
+        <v>0.85699999999999998</v>
       </c>
     </row>
-    <row r="15" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D15" s="2" t="s">
+    <row r="23" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D23" s="2" t="s">
         <v>4</v>
       </c>
-      <c r="E15" s="3">
-        <v>0.97</v>
+      <c r="E23" s="3">
+        <v>0.89690000000000003</v>
       </c>
     </row>
-    <row r="16" spans="4:5" x14ac:dyDescent="0.3">
-      <c r="D16" s="2" t="s">
+    <row r="24" spans="4:5" x14ac:dyDescent="0.3">
+      <c r="D24" s="2" t="s">
         <v>5</v>
       </c>
-      <c r="E16" s="3">
-        <v>0.97004000000000001</v>
+      <c r="E24" s="3">
+        <v>0.91500000000000004</v>
       </c>
     </row>
   </sheetData>

--- a/Accuracy_tables.xlsx
+++ b/Accuracy_tables.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\alexc\OneDrive\Documents\Taiwan Classes\Second Semester\Brain Computer Interfaces\BCI Presentation and Project\SEED4\bci-emotion-classification\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3B88F996-220E-4344-99FE-5CAB1ED565D1}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{327C25D9-FD88-4D4F-B654-682A2D091419}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{C843D5BE-4351-4DF4-BA8A-45AA6EF1EA66}"/>
   </bookViews>
@@ -35,7 +35,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="16" uniqueCount="9">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="25" uniqueCount="11">
   <si>
     <t>Model</t>
   </si>
@@ -62,6 +62,12 @@
   </si>
   <si>
     <t>Accuracies - FFTs</t>
+  </si>
+  <si>
+    <t>Both</t>
+  </si>
+  <si>
+    <t>Accuracies (all Features)</t>
   </si>
 </sst>
 </file>
@@ -800,6 +806,468 @@
 </c:chartSpace>
 </file>
 
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:c16r2="http://schemas.microsoft.com/office/drawing/2015/06/chart">
+  <c:date1904 val="0"/>
+  <c:lang val="en-US"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="es-CR"/>
+              <a:t>Comparison</a:t>
+            </a:r>
+            <a:r>
+              <a:rPr lang="es-CR" baseline="0"/>
+              <a:t> between Features Selection</a:t>
+            </a:r>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="1400" b="0" i="0" u="none" strike="noStrike" kern="1200" spc="0" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:view3D>
+      <c:rotX val="15"/>
+      <c:rotY val="20"/>
+      <c:depthPercent val="100"/>
+      <c:rAngAx val="1"/>
+    </c:view3D>
+    <c:floor>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:floor>
+    <c:sideWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:sideWall>
+    <c:backWall>
+      <c:thickness val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+        <a:sp3d/>
+      </c:spPr>
+    </c:backWall>
+    <c:plotArea>
+      <c:layout/>
+      <c:bar3DChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$E$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracies (all Features)</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent1"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$37:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RFC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$E$37:$E$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.95979000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.89900000000000002</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.96789999999999998</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.97004000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000000-B960-4643-AC08-3ACA24E83D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:strRef>
+              <c:f>Sheet1!$F$36</c:f>
+              <c:strCache>
+                <c:ptCount val="1"/>
+                <c:pt idx="0">
+                  <c:v>Accuracies - FFTs</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:tx>
+          <c:spPr>
+            <a:solidFill>
+              <a:schemeClr val="accent2"/>
+            </a:solidFill>
+            <a:ln>
+              <a:noFill/>
+            </a:ln>
+            <a:effectLst/>
+            <a:sp3d/>
+          </c:spPr>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Sheet1!$D$37:$D$40</c:f>
+              <c:strCache>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>GRU</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>SVM</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>RFC</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>CNN</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Sheet1!$F$37:$F$40</c:f>
+              <c:numCache>
+                <c:formatCode>0.00%</c:formatCode>
+                <c:ptCount val="4"/>
+                <c:pt idx="0">
+                  <c:v>0.93298000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.85699999999999998</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.89690000000000003</c:v>
+                </c:pt>
+                <c:pt idx="3">
+                  <c:v>0.91500000000000004</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+          <c:extLst>
+            <c:ext xmlns:c16="http://schemas.microsoft.com/office/drawing/2014/chart" uri="{C3380CC4-5D6E-409C-BE32-E72D297353CC}">
+              <c16:uniqueId val="{00000001-B960-4643-AC08-3ACA24E83D78}"/>
+            </c:ext>
+          </c:extLst>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="150"/>
+        <c:shape val="box"/>
+        <c:axId val="1303247903"/>
+        <c:axId val="1303252063"/>
+        <c:axId val="0"/>
+      </c:bar3DChart>
+      <c:catAx>
+        <c:axId val="1303247903"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303252063"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="1303252063"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines>
+          <c:spPr>
+            <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="15000"/>
+                  <a:lumOff val="85000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:round/>
+            </a:ln>
+            <a:effectLst/>
+          </c:spPr>
+        </c:majorGridlines>
+        <c:numFmt formatCode="0.00%" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:noFill/>
+          <a:ln>
+            <a:noFill/>
+          </a:ln>
+          <a:effectLst/>
+        </c:spPr>
+        <c:txPr>
+          <a:bodyPr rot="-60000000" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+                <a:solidFill>
+                  <a:schemeClr val="tx1">
+                    <a:lumMod val="65000"/>
+                    <a:lumOff val="35000"/>
+                  </a:schemeClr>
+                </a:solidFill>
+                <a:latin typeface="+mn-lt"/>
+                <a:ea typeface="+mn-ea"/>
+                <a:cs typeface="+mn-cs"/>
+              </a:defRPr>
+            </a:pPr>
+            <a:endParaRPr lang="es-CR"/>
+          </a:p>
+        </c:txPr>
+        <c:crossAx val="1303247903"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:overlay val="0"/>
+      <c:spPr>
+        <a:noFill/>
+        <a:ln>
+          <a:noFill/>
+        </a:ln>
+        <a:effectLst/>
+      </c:spPr>
+      <c:txPr>
+        <a:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="ellipsis" vert="horz" wrap="square" anchor="ctr" anchorCtr="1"/>
+        <a:lstStyle/>
+        <a:p>
+          <a:pPr>
+            <a:defRPr sz="900" b="0" i="0" u="none" strike="noStrike" kern="1200" baseline="0">
+              <a:solidFill>
+                <a:schemeClr val="tx1">
+                  <a:lumMod val="65000"/>
+                  <a:lumOff val="35000"/>
+                </a:schemeClr>
+              </a:solidFill>
+              <a:latin typeface="+mn-lt"/>
+              <a:ea typeface="+mn-ea"/>
+              <a:cs typeface="+mn-cs"/>
+            </a:defRPr>
+          </a:pPr>
+          <a:endParaRPr lang="es-CR"/>
+        </a:p>
+      </c:txPr>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:extLst>
+      <c:ext xmlns:c16r3="http://schemas.microsoft.com/office/drawing/2017/03/chart" uri="{56B9EC1D-385E-4148-901F-78D8002777C0}">
+        <c16r3:dataDisplayOptions16>
+          <c16r3:dispNaAsBlank val="1"/>
+        </c16r3:dataDisplayOptions16>
+      </c:ext>
+    </c:extLst>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:spPr>
+    <a:solidFill>
+      <a:schemeClr val="bg1"/>
+    </a:solidFill>
+    <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+      <a:solidFill>
+        <a:schemeClr val="tx1">
+          <a:lumMod val="15000"/>
+          <a:lumOff val="85000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:round/>
+    </a:ln>
+    <a:effectLst/>
+  </c:spPr>
+  <c:txPr>
+    <a:bodyPr/>
+    <a:lstStyle/>
+    <a:p>
+      <a:pPr>
+        <a:defRPr/>
+      </a:pPr>
+      <a:endParaRPr lang="es-CR"/>
+    </a:p>
+  </c:txPr>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
 <file path=xl/charts/colors1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
   <a:schemeClr val="accent1"/>
@@ -877,6 +1345,46 @@
 </cs:colorStyle>
 </file>
 
+<file path=xl/charts/colors3.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:colorStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" meth="cycle" id="10">
+  <a:schemeClr val="accent1"/>
+  <a:schemeClr val="accent2"/>
+  <a:schemeClr val="accent3"/>
+  <a:schemeClr val="accent4"/>
+  <a:schemeClr val="accent5"/>
+  <a:schemeClr val="accent6"/>
+  <cs:variation/>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+    <a:lumOff val="20000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="80000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="60000"/>
+    <a:lumOff val="40000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+    <a:lumOff val="30000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="70000"/>
+  </cs:variation>
+  <cs:variation>
+    <a:lumMod val="50000"/>
+    <a:lumOff val="50000"/>
+  </cs:variation>
+</cs:colorStyle>
+</file>
+
 <file path=xl/charts/style1.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
@@ -1372,6 +1880,500 @@
 </file>
 
 <file path=xl/charts/style2.xml><?xml version="1.0" encoding="utf-8"?>
+<cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
+  <cs:axisTitle>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:axisTitle>
+  <cs:categoryAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:categoryAxis>
+  <cs:chartArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="bg1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="1000" kern="1200"/>
+  </cs:chartArea>
+  <cs:dataLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="75000"/>
+        <a:lumOff val="25000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataLabel>
+  <cs:dataLabelCallout>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="dk1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln>
+        <a:solidFill>
+          <a:schemeClr val="dk1">
+            <a:lumMod val="25000"/>
+            <a:lumOff val="75000"/>
+          </a:schemeClr>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+    <cs:bodyPr rot="0" spcFirstLastPara="1" vertOverflow="clip" horzOverflow="clip" vert="horz" wrap="square" lIns="36576" tIns="18288" rIns="36576" bIns="18288" anchor="ctr" anchorCtr="1">
+      <a:spAutoFit/>
+    </cs:bodyPr>
+  </cs:dataLabelCallout>
+  <cs:dataPoint>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint>
+  <cs:dataPoint3D>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:dataPoint3D>
+  <cs:dataPointLine>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="28575" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointLine>
+  <cs:dataPointMarker>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1">
+      <cs:styleClr val="auto"/>
+    </cs:fillRef>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointMarker>
+  <cs:dataPointMarkerLayout symbol="circle" size="5"/>
+  <cs:dataPointWireframe>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="1"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dataPointWireframe>
+  <cs:dataTable>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:dataTable>
+  <cs:downBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="dk1">
+          <a:lumMod val="75000"/>
+          <a:lumOff val="25000"/>
+        </a:schemeClr>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:downBar>
+  <cs:dropLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:dropLine>
+  <cs:errorBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:errorBar>
+  <cs:floor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:floor>
+  <cs:gridlineMajor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="15000"/>
+            <a:lumOff val="85000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMajor>
+  <cs:gridlineMinor>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="5000"/>
+            <a:lumOff val="95000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:gridlineMinor>
+  <cs:hiLoLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="50000"/>
+            <a:lumOff val="50000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:hiLoLine>
+  <cs:leaderLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:leaderLine>
+  <cs:legend>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:legend>
+  <cs:plotArea mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea>
+  <cs:plotArea3D mods="allowNoFillOverride allowNoLineOverride">
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+  </cs:plotArea3D>
+  <cs:seriesAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:seriesAxis>
+  <cs:seriesLine>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="35000"/>
+            <a:lumOff val="65000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:seriesLine>
+  <cs:title>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="1400" b="0" kern="1200" spc="0" baseline="0"/>
+  </cs:title>
+  <cs:trendline>
+    <cs:lnRef idx="0">
+      <cs:styleClr val="auto"/>
+    </cs:lnRef>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:ln w="19050" cap="rnd">
+        <a:solidFill>
+          <a:schemeClr val="phClr"/>
+        </a:solidFill>
+        <a:prstDash val="sysDot"/>
+      </a:ln>
+    </cs:spPr>
+  </cs:trendline>
+  <cs:trendlineLabel>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:trendlineLabel>
+  <cs:upBar>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:solidFill>
+        <a:schemeClr val="lt1"/>
+      </a:solidFill>
+      <a:ln w="9525" cap="flat" cmpd="sng" algn="ctr">
+        <a:solidFill>
+          <a:schemeClr val="tx1">
+            <a:lumMod val="65000"/>
+            <a:lumOff val="35000"/>
+          </a:schemeClr>
+        </a:solidFill>
+        <a:round/>
+      </a:ln>
+    </cs:spPr>
+  </cs:upBar>
+  <cs:valueAxis>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1">
+        <a:lumMod val="65000"/>
+        <a:lumOff val="35000"/>
+      </a:schemeClr>
+    </cs:fontRef>
+    <cs:defRPr sz="900" kern="1200"/>
+  </cs:valueAxis>
+  <cs:wall>
+    <cs:lnRef idx="0"/>
+    <cs:fillRef idx="0"/>
+    <cs:effectRef idx="0"/>
+    <cs:fontRef idx="minor">
+      <a:schemeClr val="tx1"/>
+    </cs:fontRef>
+    <cs:spPr>
+      <a:noFill/>
+      <a:ln>
+        <a:noFill/>
+      </a:ln>
+    </cs:spPr>
+  </cs:wall>
+</cs:chartStyle>
+</file>
+
+<file path=xl/charts/style3.xml><?xml version="1.0" encoding="utf-8"?>
 <cs:chartStyle xmlns:cs="http://schemas.microsoft.com/office/drawing/2012/chartStyle" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" id="286">
   <cs:axisTitle>
     <cs:lnRef idx="0"/>
@@ -1906,15 +2908,15 @@
   <xdr:twoCellAnchor>
     <xdr:from>
       <xdr:col>5</xdr:col>
-      <xdr:colOff>601980</xdr:colOff>
-      <xdr:row>17</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:colOff>1028700</xdr:colOff>
+      <xdr:row>15</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:from>
     <xdr:to>
-      <xdr:col>13</xdr:col>
-      <xdr:colOff>297180</xdr:colOff>
-      <xdr:row>32</xdr:row>
-      <xdr:rowOff>0</xdr:rowOff>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>114300</xdr:colOff>
+      <xdr:row>30</xdr:row>
+      <xdr:rowOff>175260</xdr:rowOff>
     </xdr:to>
     <xdr:graphicFrame macro="">
       <xdr:nvGraphicFramePr>
@@ -1934,6 +2936,42 @@
       <a:graphic>
         <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
           <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>30480</xdr:colOff>
+      <xdr:row>33</xdr:row>
+      <xdr:rowOff>0</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>182880</xdr:colOff>
+      <xdr:row>49</xdr:row>
+      <xdr:rowOff>91440</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="5" name="Chart 4">
+          <a:extLst>
+            <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+              <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{A81B5DD2-49D7-DFEF-9306-AFFB1917D047}"/>
+            </a:ext>
+          </a:extLst>
+        </xdr:cNvPr>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
         </a:graphicData>
       </a:graphic>
     </xdr:graphicFrame>
@@ -2239,16 +3277,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{595A6E9D-3521-4859-B9EB-983151B8E8C7}">
-  <dimension ref="D4:E24"/>
+  <dimension ref="D4:F40"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E12" sqref="E12"/>
+    <sheetView tabSelected="1" topLeftCell="A25" workbookViewId="0">
+      <selection activeCell="Q46" sqref="Q46"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
     <col min="4" max="4" width="8.21875" customWidth="1"/>
     <col min="5" max="5" width="20.88671875" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="15.109375" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="4" spans="4:5" x14ac:dyDescent="0.3">
@@ -2344,6 +3383,69 @@
         <v>5</v>
       </c>
       <c r="E24" s="3">
+        <v>0.91500000000000004</v>
+      </c>
+    </row>
+    <row r="35" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D35" t="s">
+        <v>6</v>
+      </c>
+      <c r="E35" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="36" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D36" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="E36" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F36" s="1" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="37" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D37" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="E37" s="3">
+        <v>0.95979000000000003</v>
+      </c>
+      <c r="F37" s="3">
+        <v>0.93298000000000003</v>
+      </c>
+    </row>
+    <row r="38" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D38" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E38" s="3">
+        <v>0.89900000000000002</v>
+      </c>
+      <c r="F38" s="3">
+        <v>0.85699999999999998</v>
+      </c>
+    </row>
+    <row r="39" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D39" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="E39" s="3">
+        <v>0.96789999999999998</v>
+      </c>
+      <c r="F39" s="3">
+        <v>0.89690000000000003</v>
+      </c>
+    </row>
+    <row r="40" spans="4:6" x14ac:dyDescent="0.3">
+      <c r="D40" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="E40" s="3">
+        <v>0.97004000000000001</v>
+      </c>
+      <c r="F40" s="3">
         <v>0.91500000000000004</v>
       </c>
     </row>
